--- a/backend/reports/relatorio.xlsx
+++ b/backend/reports/relatorio.xlsx
@@ -19,7 +19,7 @@
     <t>Idade</t>
   </si>
   <si>
-    <t>John Doe</t>
+    <t>John Doe 2</t>
   </si>
 </sst>
 </file>
